--- a/src/com/glucoma/qa/trf-internal-user.xlsx
+++ b/src/com/glucoma/qa/trf-internal-user.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="191">
   <si>
     <t>Specimen ID Number</t>
   </si>
@@ -612,13 +612,10 @@
     <t>Luong's Clinic - Patient Direct Bill</t>
   </si>
   <si>
-    <t>2000017</t>
-  </si>
-  <si>
-    <t>2000018</t>
-  </si>
-  <si>
-    <t>2000019</t>
+    <t>2000020</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,16 +1851,16 @@
       </c>
       <c r="C4" s="23" t="str">
         <f>A4</f>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -1882,11 +1879,11 @@
       </c>
       <c r="L4" s="23" t="str">
         <f>$A4</f>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="M4" s="23" t="str">
         <f>$A4</f>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>93</v>
@@ -1896,7 +1893,7 @@
       </c>
       <c r="P4" s="23" t="str">
         <f>A4</f>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>19</v>
@@ -1911,16 +1908,16 @@
         <v>51</v>
       </c>
       <c r="V4" s="23" t="str">
-        <f t="shared" ref="V4:X6" si="0">$A4</f>
-        <v>2000017</v>
+        <f t="shared" ref="V4:X4" si="0">$A4</f>
+        <v>2000020</v>
       </c>
       <c r="W4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="X4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2000017</v>
+        <v>2000020</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>110</v>
@@ -1929,182 +1926,52 @@
         <v>188</v>
       </c>
       <c r="AI4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="23" t="str">
-        <f t="shared" ref="C5:C6" si="1">A5</f>
-        <v>2000018</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="23" t="str">
-        <f t="shared" ref="L5:M6" si="2">$A5</f>
-        <v>2000018</v>
-      </c>
-      <c r="M5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>2000018</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="23" t="str">
-        <f t="shared" ref="P5:P6" si="3">A5</f>
-        <v>2000018</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="21">
-        <v>11111</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000018</v>
-      </c>
-      <c r="W5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000018</v>
-      </c>
-      <c r="X5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000018</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>2000019</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>2000019</v>
-      </c>
-      <c r="M6" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>2000019</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>2000019</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="21">
-        <v>11111</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000019</v>
-      </c>
-      <c r="W6" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000019</v>
-      </c>
-      <c r="X6" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>2000019</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -2151,74 +2018,28 @@
       <c r="Y8" s="23"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="A9" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
+      <c r="A10" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A11" s="20" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId1"/>
     <hyperlink ref="O4" r:id="rId2"/>
-    <hyperlink ref="O5" r:id="rId3"/>
-    <hyperlink ref="O6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
